--- a/biology/Botanique/Vodka_Martini/Vodka_Martini.xlsx
+++ b/biology/Botanique/Vodka_Martini/Vodka_Martini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Vodka Martini ou Vodkatini ou Kangourou est un cocktail à base de vodka et de vermouth. Il est depuis 1953 un des cocktails les plus célèbres de la littérature et du cinéma mondial, en tant que cocktail préféré de l'agent secret britannique James Bond 007, de Ian Fleming, avec ses variantes dry Martini (gin, et vermouth) et Vesper (vodka, gin, Lillet, et citron[1],[2],[3]).
+Le Vodka Martini ou Vodkatini ou Kangourou est un cocktail à base de vodka et de vermouth. Il est depuis 1953 un des cocktails les plus célèbres de la littérature et du cinéma mondial, en tant que cocktail préféré de l'agent secret britannique James Bond 007, de Ian Fleming, avec ses variantes dry Martini (gin, et vermouth) et Vesper (vodka, gin, Lillet, et citron).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanger dans un shaker (ou dans un verre mélangeur) vodka et vermouth sec avec de la glace. Frapper, remuer, secouer, puis filtrer le mélange, et servir « straight up » (sans glace) dans un verre à cocktail refroidi par de la glace[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanger dans un shaker (ou dans un verre mélangeur) vodka et vermouth sec avec de la glace. Frapper, remuer, secouer, puis filtrer le mélange, et servir « straight up » (sans glace) dans un verre à cocktail refroidi par de la glace. 
 	Vodka Martini, et variantes dry Martini et Vesper
-Il peut être agrémenté de quelques olives vertes, d'une tranche ou torsade de citron (une bande d'écorce de citron pressée ou tordue), de câpres, ou d'oignons[5].
+Il peut être agrémenté de quelques olives vertes, d'une tranche ou torsade de citron (une bande d'écorce de citron pressée ou tordue), de câpres, ou d'oignons.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 dose de vermouth.
 4 ou 6 doses de vodka.</t>
@@ -576,9 +592,11 @@
           <t>James Bond 007</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail est mondialement connu pour être la boisson favorite, avec ses variantes dry Martini et Vesper, du célèbre agent secret britannique James Bond 007, qui le consomme « shaken, not stirred » (au shaker, pas à la cuillère, en anglais) avec de la Vodka russe si possible (dans ses aventures cinématographiques, moins dans les livres de Ian Fleming). Depuis 007 Spectre de 2015, la marque de Vodka polonaise de luxe Belvedere (vodka) de LVMH - Moët Hennessy Louis Vuitton est associée à la production des films de James Bond[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail est mondialement connu pour être la boisson favorite, avec ses variantes dry Martini et Vesper, du célèbre agent secret britannique James Bond 007, qui le consomme « shaken, not stirred » (au shaker, pas à la cuillère, en anglais) avec de la Vodka russe si possible (dans ses aventures cinématographiques, moins dans les livres de Ian Fleming). Depuis 007 Spectre de 2015, la marque de Vodka polonaise de luxe Belvedere (vodka) de LVMH - Moët Hennessy Louis Vuitton est associée à la production des films de James Bond,.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Martini (cocktail) (gin, vermouth).
 Vesper (cocktail) (gin, vodka, Lillet, citron).
